--- a/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
+++ b/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Mine!$A$1:$E$941</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -174,7 +175,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,33 +203,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,32 +217,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Explanatory Text 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -277,9 +265,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -289,16 +277,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -319,9 +307,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -331,16 +319,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -361,9 +349,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -373,16 +361,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -403,9 +391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -415,16 +403,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -445,9 +433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -457,16 +445,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -487,9 +475,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -499,16 +487,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -529,9 +517,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -541,16 +529,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -571,9 +559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -583,16 +571,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -613,9 +601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -625,16 +613,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -655,9 +643,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -667,16 +655,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -697,9 +685,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -709,16 +697,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -739,9 +727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -751,16 +739,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -781,9 +769,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -793,16 +781,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -823,9 +811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -835,16 +823,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -865,9 +853,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -877,16 +865,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -907,9 +895,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -919,16 +907,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -949,9 +937,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -961,16 +949,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -991,9 +979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1003,16 +991,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1033,9 +1021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1045,16 +1033,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1075,9 +1063,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1087,16 +1075,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1117,9 +1105,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1129,16 +1117,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1159,9 +1147,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1171,16 +1159,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1201,9 +1189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1213,16 +1201,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1243,9 +1231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1255,16 +1243,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1285,9 +1273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1297,16 +1285,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1327,9 +1315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1339,16 +1327,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1369,9 +1357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1381,16 +1369,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1411,9 +1399,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1423,16 +1411,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1453,9 +1441,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1465,16 +1453,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1495,9 +1483,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1507,16 +1495,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1537,9 +1525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1549,16 +1537,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1579,9 +1567,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1591,16 +1579,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1621,9 +1609,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1633,16 +1621,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1663,9 +1651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1675,16 +1663,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1705,9 +1693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1717,16 +1705,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1747,9 +1735,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1759,16 +1747,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1789,9 +1777,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1801,16 +1789,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1831,9 +1819,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1843,16 +1831,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1873,9 +1861,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1885,16 +1873,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1915,9 +1903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1927,16 +1915,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1957,9 +1945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1969,16 +1957,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1999,9 +1987,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2011,16 +1999,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2041,9 +2029,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2053,16 +2041,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2083,9 +2071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2095,16 +2083,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2125,9 +2113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2137,16 +2125,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2167,9 +2155,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2179,16 +2167,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2209,9 +2197,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2221,16 +2209,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2251,9 +2239,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2263,16 +2251,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2293,9 +2281,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2305,16 +2293,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2335,9 +2323,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2347,16 +2335,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2377,9 +2365,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2389,16 +2377,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2419,9 +2407,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2431,16 +2419,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2461,9 +2449,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2473,16 +2461,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2503,9 +2491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2515,16 +2503,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2545,9 +2533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2557,16 +2545,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2587,9 +2575,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2599,16 +2587,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2629,9 +2617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2641,16 +2629,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2671,9 +2659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2683,16 +2671,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2713,9 +2701,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2725,16 +2713,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12882960" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
+          <a:ext cx="12934800" cy="9523800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2755,9 +2743,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2767,7 +2755,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2800,9 +2788,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2812,7 +2800,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2845,9 +2833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2857,7 +2845,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2890,9 +2878,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2902,7 +2890,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2935,9 +2923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2947,7 +2935,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2980,9 +2968,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2992,7 +2980,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3025,9 +3013,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3037,7 +3025,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3070,9 +3058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3082,7 +3070,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3115,9 +3103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3127,7 +3115,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3160,9 +3148,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3172,7 +3160,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3205,9 +3193,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3217,7 +3205,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3250,9 +3238,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3262,7 +3250,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3295,9 +3283,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3307,7 +3295,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3340,9 +3328,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3352,7 +3340,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3385,9 +3373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3397,7 +3385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3430,9 +3418,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3442,7 +3430,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3475,9 +3463,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3487,7 +3475,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3520,9 +3508,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3532,7 +3520,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3565,9 +3553,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3577,7 +3565,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3610,9 +3598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3622,7 +3610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3655,9 +3643,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3667,7 +3655,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3700,9 +3688,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3712,7 +3700,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3745,9 +3733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3757,7 +3745,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3790,9 +3778,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3802,7 +3790,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3835,9 +3823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3847,7 +3835,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3880,9 +3868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3892,7 +3880,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3925,9 +3913,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3937,7 +3925,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3970,9 +3958,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3982,7 +3970,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4015,9 +4003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4027,7 +4015,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4060,9 +4048,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4072,7 +4060,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4105,9 +4093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4117,7 +4105,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4150,9 +4138,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4162,7 +4150,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4195,9 +4183,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4207,7 +4195,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4240,9 +4228,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4252,7 +4240,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4285,9 +4273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4297,7 +4285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4330,9 +4318,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4342,7 +4330,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4375,9 +4363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4387,7 +4375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4420,9 +4408,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4432,7 +4420,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4465,9 +4453,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4477,7 +4465,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4510,9 +4498,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4522,7 +4510,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4555,9 +4543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4567,7 +4555,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4600,9 +4588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4612,7 +4600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4645,9 +4633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4657,7 +4645,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4690,9 +4678,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4702,7 +4690,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4735,9 +4723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4747,7 +4735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4780,9 +4768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4792,7 +4780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4825,9 +4813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4837,7 +4825,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4870,9 +4858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4882,7 +4870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4915,9 +4903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4927,7 +4915,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4960,9 +4948,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4972,7 +4960,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5005,9 +4993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5017,7 +5005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5050,9 +5038,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5062,7 +5050,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5095,9 +5083,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5107,7 +5095,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5140,9 +5128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5152,7 +5140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5185,9 +5173,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5197,7 +5185,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5230,9 +5218,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5242,7 +5230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5275,9 +5263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5287,7 +5275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5320,9 +5308,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5332,7 +5320,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5365,9 +5353,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5377,7 +5365,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9672480" cy="190080"/>
+          <a:ext cx="9714960" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5419,16 +5407,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6599190283401"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="38.9919028340081"/>
     <col collapsed="false" hidden="true" max="9" min="6" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="true" max="13" min="11" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="18" min="16" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="21" min="20" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1021" min="23" style="2" width="9.10526315789474"/>
@@ -5456,46 +5444,46 @@
       </c>
       <c r="G1" s="4" t="n">
         <f aca="false">SUM(D2:D469)</f>
-        <v>0.1611636115375</v>
+        <v>0.86639774366507</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="n">
         <f aca="false">G1 / 8</f>
-        <v>0.0201454514421875</v>
+        <v>0.108299717958134</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="5" t="n">
         <f aca="false">I1 / 22</f>
-        <v>0.000915702338281252</v>
-      </c>
-      <c r="L1" s="6" t="n">
+        <v>0.00492271445264244</v>
+      </c>
+      <c r="L1" s="0" t="n">
         <f aca="false">HOUR(K1)</f>
         <v>0</v>
       </c>
-      <c r="M1" s="7" t="n">
+      <c r="M1" s="6" t="n">
         <f aca="false">MINUTE(K1)</f>
-        <v>1</v>
-      </c>
-      <c r="N1" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1" s="7" t="n">
         <f aca="false">L1 + M1 / 60</f>
-        <v>0.0166666666666667</v>
+        <v>0.116666666666667</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="9" t="n">
+      <c r="P1" s="8" t="n">
         <v>4500</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="10" t="n">
+      <c r="R1" s="8" t="n">
         <f aca="false">P1 / N1</f>
-        <v>270000</v>
+        <v>38571.4285714286</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>10</v>
@@ -5506,9 +5494,9 @@
       <c r="U1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="10" t="n">
+      <c r="V1" s="8" t="n">
         <f aca="false">R1 * T1</f>
-        <v>16999200</v>
+        <v>2428457.14285714</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5533,10 +5521,12 @@
       <c r="B3" s="5" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="n">
+        <v>0.70523413212757</v>
+      </c>
       <c r="D3" s="5" t="n">
         <f aca="false">C3-B3</f>
-        <v>-0.416666666666667</v>
+        <v>0.288567465460903</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
+++ b/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
@@ -15,6 +15,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -60,6 +62,20 @@
       </text>
     </comment>
     <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Approximately</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,9 +281,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -277,7 +293,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -307,9 +323,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -319,7 +335,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -349,9 +365,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -361,7 +377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -391,9 +407,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -403,7 +419,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -433,9 +449,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -445,7 +461,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -475,9 +491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -487,7 +503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -517,9 +533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -529,7 +545,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -559,9 +575,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -571,7 +587,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -601,9 +617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -613,7 +629,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -643,9 +659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -655,7 +671,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -685,9 +701,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -697,7 +713,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -727,9 +743,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -739,7 +755,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -769,9 +785,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -781,7 +797,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -811,9 +827,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -823,7 +839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -853,9 +869,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -865,7 +881,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,9 +911,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -907,7 +923,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -937,9 +953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -949,7 +965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -979,9 +995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -991,7 +1007,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,9 +1037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1033,7 +1049,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1063,9 +1079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1075,7 +1091,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1105,9 +1121,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1117,7 +1133,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1147,9 +1163,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1159,7 +1175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1189,9 +1205,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1201,7 +1217,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1231,9 +1247,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1243,7 +1259,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1273,9 +1289,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1285,7 +1301,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1315,9 +1331,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1327,7 +1343,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1357,9 +1373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1369,7 +1385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1399,9 +1415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1411,7 +1427,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1441,9 +1457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1453,7 +1469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1483,9 +1499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1495,7 +1511,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1525,9 +1541,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1537,7 +1553,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1567,9 +1583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1579,7 +1595,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1609,9 +1625,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1621,7 +1637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1651,9 +1667,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1663,7 +1679,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1693,9 +1709,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1705,7 +1721,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1735,9 +1751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1747,7 +1763,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1777,9 +1793,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1789,7 +1805,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1819,9 +1835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1831,7 +1847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1861,9 +1877,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1873,7 +1889,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1903,9 +1919,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1915,7 +1931,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1945,9 +1961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1957,7 +1973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1987,9 +2003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1999,7 +2015,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2029,9 +2045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2041,7 +2057,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2071,9 +2087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2083,7 +2099,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2113,9 +2129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2125,7 +2141,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2155,9 +2171,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2167,7 +2183,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2197,9 +2213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2209,7 +2225,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2239,9 +2255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2251,7 +2267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2281,9 +2297,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2293,7 +2309,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2323,9 +2339,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2335,7 +2351,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2365,9 +2381,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2377,7 +2393,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2407,9 +2423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2419,7 +2435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2449,9 +2465,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2461,7 +2477,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2491,9 +2507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2503,7 +2519,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2533,9 +2549,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2545,7 +2561,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2575,9 +2591,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2587,7 +2603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2617,9 +2633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2629,7 +2645,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2659,9 +2675,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2671,7 +2687,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2701,9 +2717,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2713,7 +2729,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12934800" cy="9523800"/>
+          <a:ext cx="13029120" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2743,9 +2759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2755,7 +2771,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2788,9 +2804,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2800,7 +2816,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2833,9 +2849,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2845,7 +2861,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2878,9 +2894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2890,7 +2906,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2923,9 +2939,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2935,7 +2951,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2968,9 +2984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2980,7 +2996,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3013,9 +3029,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3025,7 +3041,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3058,9 +3074,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3070,7 +3086,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3103,9 +3119,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3115,7 +3131,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3148,9 +3164,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3160,7 +3176,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3193,9 +3209,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3205,7 +3221,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3238,9 +3254,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3250,7 +3266,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3283,9 +3299,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3295,7 +3311,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3328,9 +3344,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3340,7 +3356,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3373,9 +3389,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3385,7 +3401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3418,9 +3434,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3430,7 +3446,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3463,9 +3479,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3475,7 +3491,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3508,9 +3524,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3520,7 +3536,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3553,9 +3569,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3565,7 +3581,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3598,9 +3614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3610,7 +3626,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3643,9 +3659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3655,7 +3671,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3688,9 +3704,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3700,7 +3716,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3733,9 +3749,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3745,7 +3761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3778,9 +3794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3790,7 +3806,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3823,9 +3839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3835,7 +3851,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3868,9 +3884,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3880,7 +3896,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3913,9 +3929,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3925,7 +3941,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3958,9 +3974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3970,7 +3986,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4003,9 +4019,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4015,7 +4031,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4048,9 +4064,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4060,7 +4076,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4093,9 +4109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4105,7 +4121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4138,9 +4154,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4150,7 +4166,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4183,9 +4199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4195,7 +4211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4228,9 +4244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4240,7 +4256,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4273,9 +4289,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4285,7 +4301,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4318,9 +4334,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4330,7 +4346,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4363,9 +4379,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4375,7 +4391,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4408,9 +4424,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4420,7 +4436,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4453,9 +4469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4465,7 +4481,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4498,9 +4514,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4510,7 +4526,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4543,9 +4559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4555,7 +4571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4588,9 +4604,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4600,7 +4616,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4633,9 +4649,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4645,7 +4661,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4678,9 +4694,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4690,7 +4706,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4723,9 +4739,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4735,7 +4751,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4768,9 +4784,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4780,7 +4796,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4813,9 +4829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4825,7 +4841,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4858,9 +4874,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4870,7 +4886,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4903,9 +4919,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4915,7 +4931,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4948,9 +4964,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4960,7 +4976,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4993,9 +5009,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5005,7 +5021,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5038,9 +5054,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5050,7 +5066,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5083,9 +5099,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5095,7 +5111,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5128,9 +5144,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5140,7 +5156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5173,9 +5189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5185,7 +5201,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5218,9 +5234,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5230,7 +5246,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5263,9 +5279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5275,7 +5291,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5308,9 +5324,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5320,7 +5336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5353,9 +5369,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5365,7 +5381,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9714960" cy="189720"/>
+          <a:ext cx="9790200" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5402,21 +5418,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="39.6356275303644"/>
     <col collapsed="false" hidden="true" max="9" min="6" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="true" max="13" min="11" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="18" min="16" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="21" min="20" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1021" min="23" style="2" width="9.10526315789474"/>
@@ -5444,21 +5460,21 @@
       </c>
       <c r="G1" s="4" t="n">
         <f aca="false">SUM(D2:D469)</f>
-        <v>0.86639774366507</v>
+        <v>0.996548951947084</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="n">
         <f aca="false">G1 / 8</f>
-        <v>0.108299717958134</v>
+        <v>0.124568618993386</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="5" t="n">
         <f aca="false">I1 / 22</f>
-        <v>0.00492271445264244</v>
+        <v>0.0056622099542448</v>
       </c>
       <c r="L1" s="0" t="n">
         <f aca="false">HOUR(K1)</f>
@@ -5466,11 +5482,11 @@
       </c>
       <c r="M1" s="6" t="n">
         <f aca="false">MINUTE(K1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N1" s="7" t="n">
         <f aca="false">L1 + M1 / 60</f>
-        <v>0.116666666666667</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>8</v>
@@ -5483,7 +5499,7 @@
       </c>
       <c r="R1" s="8" t="n">
         <f aca="false">P1 / N1</f>
-        <v>38571.4285714286</v>
+        <v>33750</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>10</v>
@@ -5496,7 +5512,7 @@
       </c>
       <c r="V1" s="8" t="n">
         <f aca="false">R1 * T1</f>
-        <v>2428457.14285714</v>
+        <v>2124900</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5529,12 +5545,19 @@
         <v>0.288567465460903</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0.744848791717986</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.875</v>
+      </c>
       <c r="D4" s="5" t="n">
         <f aca="false">C4-B4</f>
-        <v>0</v>
+        <v>0.130151208282014</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
+++ b/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
@@ -17,6 +17,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -61,6 +63,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Approximately</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Approximately</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C2" authorId="0">
       <text>
         <r>
@@ -76,6 +106,20 @@
       </text>
     </comment>
     <comment ref="C4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Approximately</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -281,9 +325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -293,7 +337,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -323,9 +367,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -335,7 +379,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -365,9 +409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -377,7 +421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -407,9 +451,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -419,7 +463,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -449,9 +493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -461,7 +505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -491,9 +535,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -503,7 +547,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -533,9 +577,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -545,7 +589,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -575,9 +619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -587,7 +631,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -617,9 +661,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -629,7 +673,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -659,9 +703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -671,7 +715,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -701,9 +745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -713,7 +757,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -743,9 +787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -755,7 +799,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -785,9 +829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -797,7 +841,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -827,9 +871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -839,7 +883,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -869,9 +913,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -881,7 +925,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -911,9 +955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -923,7 +967,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -953,9 +997,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -965,7 +1009,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -995,9 +1039,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1007,7 +1051,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1037,9 +1081,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1049,7 +1093,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1079,9 +1123,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1091,7 +1135,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1121,9 +1165,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1133,7 +1177,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1163,9 +1207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1175,7 +1219,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1205,9 +1249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1217,7 +1261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1247,9 +1291,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1259,7 +1303,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1289,9 +1333,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1301,7 +1345,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1331,9 +1375,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1343,7 +1387,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,9 +1417,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1385,7 +1429,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1415,9 +1459,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1427,7 +1471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1457,9 +1501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1469,7 +1513,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1499,9 +1543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1511,7 +1555,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1541,9 +1585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1553,7 +1597,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1583,9 +1627,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1595,7 +1639,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1625,9 +1669,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1637,7 +1681,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1667,9 +1711,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1679,7 +1723,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1709,9 +1753,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1721,7 +1765,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1751,9 +1795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1763,7 +1807,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1793,9 +1837,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1805,7 +1849,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1835,9 +1879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1847,7 +1891,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1877,9 +1921,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1889,7 +1933,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1919,9 +1963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1931,7 +1975,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1961,9 +2005,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1973,7 +2017,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2003,9 +2047,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2015,7 +2059,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2045,9 +2089,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2057,7 +2101,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2087,9 +2131,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2099,7 +2143,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2129,9 +2173,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2141,7 +2185,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2171,9 +2215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2183,7 +2227,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2213,9 +2257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2225,7 +2269,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2255,9 +2299,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2267,7 +2311,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2297,9 +2341,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2309,7 +2353,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2339,9 +2383,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2351,7 +2395,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2381,9 +2425,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2393,7 +2437,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2423,9 +2467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2435,7 +2479,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2465,9 +2509,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2477,7 +2521,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2507,9 +2551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2519,7 +2563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2549,9 +2593,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2561,7 +2605,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2591,9 +2635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2603,7 +2647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2633,9 +2677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2645,7 +2689,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2675,9 +2719,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2687,7 +2731,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2717,9 +2761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2729,7 +2773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13029120" cy="9523080"/>
+          <a:ext cx="13114080" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2759,9 +2803,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2771,7 +2815,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2804,9 +2848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2816,7 +2860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2849,9 +2893,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2861,7 +2905,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2894,9 +2938,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2906,7 +2950,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2939,9 +2983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2951,7 +2995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2984,9 +3028,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2996,7 +3040,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3029,9 +3073,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3041,7 +3085,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3074,9 +3118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3086,7 +3130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3119,9 +3163,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3131,7 +3175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3164,9 +3208,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3176,7 +3220,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3209,9 +3253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3221,7 +3265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3254,9 +3298,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3266,7 +3310,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3299,9 +3343,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3311,7 +3355,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3344,9 +3388,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3356,7 +3400,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3389,9 +3433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3401,7 +3445,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3434,9 +3478,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3446,7 +3490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3479,9 +3523,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3491,7 +3535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3524,9 +3568,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3536,7 +3580,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3569,9 +3613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3581,7 +3625,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3614,9 +3658,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3626,7 +3670,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3659,9 +3703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3671,7 +3715,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3704,9 +3748,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3716,7 +3760,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3749,9 +3793,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3761,7 +3805,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3794,9 +3838,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3806,7 +3850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3839,9 +3883,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3851,7 +3895,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3884,9 +3928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3896,7 +3940,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3929,9 +3973,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3941,7 +3985,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3974,9 +4018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3986,7 +4030,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4019,9 +4063,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4031,7 +4075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4064,9 +4108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4076,7 +4120,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4109,9 +4153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4121,7 +4165,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4154,9 +4198,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4166,7 +4210,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4199,9 +4243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4211,7 +4255,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4244,9 +4288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4256,7 +4300,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4289,9 +4333,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4301,7 +4345,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4334,9 +4378,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4346,7 +4390,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4379,9 +4423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4391,7 +4435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4424,9 +4468,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4436,7 +4480,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4469,9 +4513,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4481,7 +4525,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4514,9 +4558,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4526,7 +4570,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4559,9 +4603,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4571,7 +4615,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4604,9 +4648,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4616,7 +4660,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4649,9 +4693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4661,7 +4705,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4694,9 +4738,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4706,7 +4750,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4739,9 +4783,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4751,7 +4795,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4784,9 +4828,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4796,7 +4840,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4829,9 +4873,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4841,7 +4885,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4874,9 +4918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4886,7 +4930,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4919,9 +4963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4931,7 +4975,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4964,9 +5008,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4976,7 +5020,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5009,9 +5053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5021,7 +5065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5054,9 +5098,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5066,7 +5110,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5099,9 +5143,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5111,7 +5155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5144,9 +5188,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5156,7 +5200,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5189,9 +5233,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5201,7 +5245,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5234,9 +5278,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5246,7 +5290,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5279,9 +5323,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5291,7 +5335,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5324,9 +5368,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5336,7 +5380,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5369,9 +5413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>150480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5381,7 +5425,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9790200" cy="189000"/>
+          <a:ext cx="9865800" cy="188280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5418,21 +5462,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="40.2753036437247"/>
     <col collapsed="false" hidden="true" max="9" min="6" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="true" max="13" min="11" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="18" min="16" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="20" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1021" min="23" style="2" width="9.10526315789474"/>
@@ -5460,21 +5504,21 @@
       </c>
       <c r="G1" s="4" t="n">
         <f aca="false">SUM(D2:D469)</f>
-        <v>0.996548951947084</v>
+        <v>1.15560234161978</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="n">
         <f aca="false">G1 / 8</f>
-        <v>0.124568618993386</v>
+        <v>0.144450292702473</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="5" t="n">
         <f aca="false">I1 / 22</f>
-        <v>0.0056622099542448</v>
+        <v>0.00656592239556694</v>
       </c>
       <c r="L1" s="0" t="n">
         <f aca="false">HOUR(K1)</f>
@@ -5482,11 +5526,11 @@
       </c>
       <c r="M1" s="6" t="n">
         <f aca="false">MINUTE(K1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N1" s="7" t="n">
         <f aca="false">L1 + M1 / 60</f>
-        <v>0.133333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>8</v>
@@ -5499,7 +5543,7 @@
       </c>
       <c r="R1" s="8" t="n">
         <f aca="false">P1 / N1</f>
-        <v>33750</v>
+        <v>30000</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>10</v>
@@ -5512,7 +5556,7 @@
       </c>
       <c r="V1" s="8" t="n">
         <f aca="false">R1 * T1</f>
-        <v>2124900</v>
+        <v>1888800</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5561,27 +5605,48 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="1" t="n">
+        <v>43436</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="D5" s="5" t="n">
         <f aca="false">C5-B5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+        <v>0.0416666666666667</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>43436</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0.923611111111111</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.965277777777778</v>
+      </c>
       <c r="D6" s="5" t="n">
         <f aca="false">C6-B6</f>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="1" t="n">
+        <v>43437</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.481970056339363</v>
+      </c>
       <c r="D7" s="5" t="n">
         <f aca="false">C7-B7</f>
-        <v>0</v>
+        <v>0.0757200563393634</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
+++ b/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
@@ -19,6 +19,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -325,9 +327,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -337,7 +339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -367,9 +369,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -379,7 +381,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -409,9 +411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -421,7 +423,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -451,9 +453,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -463,7 +465,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -493,9 +495,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -505,7 +507,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -535,9 +537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -547,7 +549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -577,9 +579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -589,7 +591,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -619,9 +621,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -631,7 +633,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -661,9 +663,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -673,7 +675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -703,9 +705,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -715,7 +717,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,9 +747,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -757,7 +759,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -787,9 +789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -799,7 +801,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -829,9 +831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -841,7 +843,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -871,9 +873,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -883,7 +885,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -913,9 +915,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -925,7 +927,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -955,9 +957,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -967,7 +969,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -997,9 +999,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1009,7 +1011,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1039,9 +1041,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1051,7 +1053,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1081,9 +1083,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1093,7 +1095,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1123,9 +1125,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1135,7 +1137,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1165,9 +1167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1177,7 +1179,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1207,9 +1209,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1219,7 +1221,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1249,9 +1251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1261,7 +1263,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1291,9 +1293,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1303,7 +1305,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1333,9 +1335,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1345,7 +1347,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1375,9 +1377,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1387,7 +1389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1417,9 +1419,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1429,7 +1431,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1459,9 +1461,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1471,7 +1473,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1501,9 +1503,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1513,7 +1515,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1543,9 +1545,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1555,7 +1557,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1585,9 +1587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1597,7 +1599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1627,9 +1629,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1639,7 +1641,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1669,9 +1671,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1681,7 +1683,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1711,9 +1713,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1723,7 +1725,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1753,9 +1755,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1765,7 +1767,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1795,9 +1797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1807,7 +1809,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1837,9 +1839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1849,7 +1851,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1879,9 +1881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1891,7 +1893,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1921,9 +1923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1933,7 +1935,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1963,9 +1965,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1975,7 +1977,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2005,9 +2007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2017,7 +2019,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2047,9 +2049,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2059,7 +2061,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2089,9 +2091,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2101,7 +2103,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2131,9 +2133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2143,7 +2145,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2173,9 +2175,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2185,7 +2187,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2215,9 +2217,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2227,7 +2229,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2257,9 +2259,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2269,7 +2271,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2299,9 +2301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2311,7 +2313,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2341,9 +2343,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2353,7 +2355,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2383,9 +2385,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2395,7 +2397,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2425,9 +2427,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2437,7 +2439,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2467,9 +2469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2479,7 +2481,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2509,9 +2511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2521,7 +2523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2551,9 +2553,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2563,7 +2565,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2593,9 +2595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2605,7 +2607,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2635,9 +2637,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2647,7 +2649,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2677,9 +2679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2689,7 +2691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2719,9 +2721,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2731,7 +2733,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2761,9 +2763,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2773,7 +2775,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13114080" cy="9522360"/>
+          <a:ext cx="13189680" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2803,9 +2805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2815,7 +2817,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2848,9 +2850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2860,7 +2862,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2893,9 +2895,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2905,7 +2907,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2938,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2950,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2983,9 +2985,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2995,7 +2997,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3028,9 +3030,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3040,7 +3042,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3073,9 +3075,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3085,7 +3087,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3118,9 +3120,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3130,7 +3132,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3163,9 +3165,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3175,7 +3177,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3208,9 +3210,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3220,7 +3222,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3253,9 +3255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3265,7 +3267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3298,9 +3300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3310,7 +3312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3343,9 +3345,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3355,7 +3357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3388,9 +3390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3400,7 +3402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3433,9 +3435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3445,7 +3447,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3478,9 +3480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3490,7 +3492,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3523,9 +3525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3535,7 +3537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3568,9 +3570,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3580,7 +3582,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3613,9 +3615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3625,7 +3627,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3658,9 +3660,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3670,7 +3672,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3703,9 +3705,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3715,7 +3717,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3748,9 +3750,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3760,7 +3762,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3793,9 +3795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3805,7 +3807,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3838,9 +3840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3850,7 +3852,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3883,9 +3885,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3895,7 +3897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3928,9 +3930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3940,7 +3942,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3973,9 +3975,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3985,7 +3987,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4018,9 +4020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4030,7 +4032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4063,9 +4065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4075,7 +4077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4108,9 +4110,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4120,7 +4122,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4153,9 +4155,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4165,7 +4167,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4198,9 +4200,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4210,7 +4212,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4243,9 +4245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4255,7 +4257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4288,9 +4290,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4300,7 +4302,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4333,9 +4335,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4345,7 +4347,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4378,9 +4380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4390,7 +4392,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4423,9 +4425,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4435,7 +4437,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4468,9 +4470,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4480,7 +4482,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4513,9 +4515,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4525,7 +4527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4558,9 +4560,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4570,7 +4572,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4603,9 +4605,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4615,7 +4617,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4648,9 +4650,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4660,7 +4662,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4693,9 +4695,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4705,7 +4707,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4738,9 +4740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4750,7 +4752,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4783,9 +4785,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4795,7 +4797,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4828,9 +4830,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4840,7 +4842,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4873,9 +4875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4885,7 +4887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4918,9 +4920,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4930,7 +4932,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4963,9 +4965,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4975,7 +4977,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5008,9 +5010,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5020,7 +5022,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5053,9 +5055,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5065,7 +5067,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5098,9 +5100,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5110,7 +5112,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5143,9 +5145,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5155,7 +5157,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5188,9 +5190,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5200,7 +5202,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5233,9 +5235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5245,7 +5247,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5278,9 +5280,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5290,7 +5292,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5323,9 +5325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5335,7 +5337,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5368,9 +5370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5380,7 +5382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5413,9 +5415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>149760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5425,7 +5427,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9865800" cy="188280"/>
+          <a:ext cx="9941400" cy="187560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5462,19 +5464,19 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="40.919028340081"/>
     <col collapsed="false" hidden="true" max="9" min="6" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="true" max="13" min="11" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="18" min="16" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="20" style="2" width="9.10526315789474"/>
@@ -5504,21 +5506,21 @@
       </c>
       <c r="G1" s="4" t="n">
         <f aca="false">SUM(D2:D469)</f>
-        <v>1.15560234161978</v>
+        <v>1.20809983163289</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="n">
         <f aca="false">G1 / 8</f>
-        <v>0.144450292702473</v>
+        <v>0.151012478954112</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="5" t="n">
         <f aca="false">I1 / 22</f>
-        <v>0.00656592239556694</v>
+        <v>0.00686420358882327</v>
       </c>
       <c r="L1" s="0" t="n">
         <f aca="false">HOUR(K1)</f>
@@ -5650,19 +5652,33 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="1" t="n">
+        <v>43437</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.581944444444444</v>
+      </c>
       <c r="D8" s="5" t="n">
         <f aca="false">C8-B8</f>
-        <v>0</v>
+        <v>0.0194444444444445</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="1" t="n">
+        <v>43437</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0.598891398875775</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.631944444444444</v>
+      </c>
       <c r="D9" s="5" t="n">
         <f aca="false">C9-B9</f>
-        <v>0</v>
+        <v>0.0330530455686694</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
+++ b/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
@@ -21,6 +21,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -327,9 +329,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -339,7 +341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -369,9 +371,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -381,7 +383,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -411,9 +413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -423,7 +425,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -453,9 +455,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -465,7 +467,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -495,9 +497,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -507,7 +509,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -537,9 +539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -549,7 +551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -579,9 +581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -591,7 +593,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -621,9 +623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -633,7 +635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,9 +665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -675,7 +677,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,9 +707,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -717,7 +719,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -747,9 +749,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -759,7 +761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -789,9 +791,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -801,7 +803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -831,9 +833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -843,7 +845,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -873,9 +875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -885,7 +887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -915,9 +917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -927,7 +929,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -957,9 +959,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -969,7 +971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -999,9 +1001,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1011,7 +1013,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1041,9 +1043,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1053,7 +1055,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1083,9 +1085,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1095,7 +1097,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1125,9 +1127,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1137,7 +1139,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1167,9 +1169,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1179,7 +1181,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1209,9 +1211,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1221,7 +1223,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1251,9 +1253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1263,7 +1265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1293,9 +1295,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1305,7 +1307,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1335,9 +1337,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1347,7 +1349,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1377,9 +1379,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1389,7 +1391,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1419,9 +1421,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1431,7 +1433,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1461,9 +1463,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1473,7 +1475,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1503,9 +1505,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1515,7 +1517,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1545,9 +1547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1557,7 +1559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1587,9 +1589,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1599,7 +1601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1629,9 +1631,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1641,7 +1643,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1671,9 +1673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1683,7 +1685,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1713,9 +1715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1725,7 +1727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1755,9 +1757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1767,7 +1769,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1797,9 +1799,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1809,7 +1811,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1839,9 +1841,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1851,7 +1853,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1881,9 +1883,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1893,7 +1895,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1923,9 +1925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1935,7 +1937,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1965,9 +1967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1977,7 +1979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2007,9 +2009,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2019,7 +2021,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2049,9 +2051,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2061,7 +2063,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2091,9 +2093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2103,7 +2105,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2133,9 +2135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2145,7 +2147,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2175,9 +2177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2187,7 +2189,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2217,9 +2219,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2229,7 +2231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2259,9 +2261,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2271,7 +2273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2301,9 +2303,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2313,7 +2315,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2343,9 +2345,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2355,7 +2357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2385,9 +2387,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2397,7 +2399,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2427,9 +2429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2439,7 +2441,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2469,9 +2471,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2481,7 +2483,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2511,9 +2513,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2523,7 +2525,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2553,9 +2555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2565,7 +2567,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2595,9 +2597,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2607,7 +2609,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2637,9 +2639,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2649,7 +2651,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2679,9 +2681,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2691,7 +2693,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2721,9 +2723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2733,7 +2735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2763,9 +2765,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2775,7 +2777,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9521640"/>
+          <a:ext cx="13265280" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2805,9 +2807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2817,7 +2819,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2850,9 +2852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2862,7 +2864,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2895,9 +2897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2907,7 +2909,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2940,9 +2942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2954,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2985,9 +2987,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2997,7 +2999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3030,9 +3032,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3042,7 +3044,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3075,9 +3077,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3087,7 +3089,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3120,9 +3122,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3132,7 +3134,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3165,9 +3167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3177,7 +3179,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3210,9 +3212,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3222,7 +3224,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3255,9 +3257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3267,7 +3269,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3300,9 +3302,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3312,7 +3314,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3345,9 +3347,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3357,7 +3359,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3390,9 +3392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3402,7 +3404,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3435,9 +3437,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3447,7 +3449,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3480,9 +3482,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3492,7 +3494,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3525,9 +3527,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3537,7 +3539,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3570,9 +3572,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3582,7 +3584,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3615,9 +3617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3627,7 +3629,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3660,9 +3662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3672,7 +3674,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3705,9 +3707,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3717,7 +3719,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3750,9 +3752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3762,7 +3764,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3795,9 +3797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3807,7 +3809,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3840,9 +3842,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3852,7 +3854,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3885,9 +3887,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3897,7 +3899,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3930,9 +3932,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3942,7 +3944,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3975,9 +3977,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3987,7 +3989,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4020,9 +4022,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4032,7 +4034,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4065,9 +4067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4077,7 +4079,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4110,9 +4112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4122,7 +4124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4155,9 +4157,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4167,7 +4169,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4200,9 +4202,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4212,7 +4214,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4245,9 +4247,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4257,7 +4259,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4290,9 +4292,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4302,7 +4304,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4335,9 +4337,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4347,7 +4349,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4380,9 +4382,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4392,7 +4394,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4425,9 +4427,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4437,7 +4439,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4470,9 +4472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4482,7 +4484,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4515,9 +4517,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4527,7 +4529,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4560,9 +4562,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4572,7 +4574,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4605,9 +4607,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4617,7 +4619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4650,9 +4652,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4662,7 +4664,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4695,9 +4697,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4707,7 +4709,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4740,9 +4742,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4752,7 +4754,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4785,9 +4787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4797,7 +4799,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4830,9 +4832,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4842,7 +4844,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4875,9 +4877,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4887,7 +4889,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4920,9 +4922,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4932,7 +4934,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4965,9 +4967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4977,7 +4979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5010,9 +5012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5022,7 +5024,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5055,9 +5057,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5067,7 +5069,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5100,9 +5102,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5112,7 +5114,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5145,9 +5147,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5157,7 +5159,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5190,9 +5192,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5202,7 +5204,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5235,9 +5237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5247,7 +5249,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5280,9 +5282,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5292,7 +5294,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5325,9 +5327,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5337,7 +5339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5370,9 +5372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5382,7 +5384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5415,9 +5417,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5427,7 +5429,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9941400" cy="187560"/>
+          <a:ext cx="10016640" cy="186840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5464,19 +5466,19 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="41.5627530364373"/>
     <col collapsed="false" hidden="true" max="9" min="6" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="true" max="13" min="11" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="18" min="16" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="20" style="2" width="9.10526315789474"/>
@@ -5506,21 +5508,21 @@
       </c>
       <c r="G1" s="4" t="n">
         <f aca="false">SUM(D2:D469)</f>
-        <v>1.20809983163289</v>
+        <v>0.724203892427918</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="n">
         <f aca="false">G1 / 8</f>
-        <v>0.151012478954112</v>
+        <v>0.0905254865534897</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="5" t="n">
         <f aca="false">I1 / 22</f>
-        <v>0.00686420358882327</v>
+        <v>0.00411479484334044</v>
       </c>
       <c r="L1" s="0" t="n">
         <f aca="false">HOUR(K1)</f>
@@ -5528,11 +5530,11 @@
       </c>
       <c r="M1" s="6" t="n">
         <f aca="false">MINUTE(K1)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N1" s="7" t="n">
         <f aca="false">L1 + M1 / 60</f>
-        <v>0.15</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>8</v>
@@ -5545,7 +5547,7 @@
       </c>
       <c r="R1" s="8" t="n">
         <f aca="false">P1 / N1</f>
-        <v>30000</v>
+        <v>54000</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>10</v>
@@ -5558,7 +5560,7 @@
       </c>
       <c r="V1" s="8" t="n">
         <f aca="false">R1 * T1</f>
-        <v>1888800</v>
+        <v>3399840</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5682,19 +5684,33 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="1" t="n">
+        <v>43438</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0.489583333333333</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.502083333333333</v>
+      </c>
       <c r="D10" s="5" t="n">
         <f aca="false">C10-B10</f>
-        <v>0</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="1" t="n">
+        <v>43438</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.546395939204977</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.05</v>
+      </c>
       <c r="D11" s="5" t="n">
         <f aca="false">C11-B11</f>
-        <v>0</v>
+        <v>-0.496395939204977</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
+++ b/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
@@ -23,6 +23,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -124,6 +126,20 @@
       </text>
     </comment>
     <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Approximately</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -329,9 +345,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -341,7 +357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -371,9 +387,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -383,7 +399,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -413,9 +429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -425,7 +441,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -455,9 +471,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -467,7 +483,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -497,9 +513,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -509,7 +525,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -539,9 +555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -551,7 +567,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -581,9 +597,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -593,7 +609,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -623,9 +639,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -635,7 +651,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -665,9 +681,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -677,7 +693,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -707,9 +723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -719,7 +735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -749,9 +765,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -761,7 +777,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -791,9 +807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -803,7 +819,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -833,9 +849,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -845,7 +861,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -875,9 +891,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -887,7 +903,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -917,9 +933,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -929,7 +945,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -959,9 +975,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -971,7 +987,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1001,9 +1017,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1013,7 +1029,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1043,9 +1059,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1055,7 +1071,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1085,9 +1101,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1097,7 +1113,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1127,9 +1143,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1139,7 +1155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1169,9 +1185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1181,7 +1197,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1211,9 +1227,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1223,7 +1239,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1253,9 +1269,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1265,7 +1281,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1295,9 +1311,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1307,7 +1323,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1337,9 +1353,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1349,7 +1365,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1379,9 +1395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1391,7 +1407,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1421,9 +1437,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1433,7 +1449,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1463,9 +1479,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1475,7 +1491,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1505,9 +1521,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1517,7 +1533,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1547,9 +1563,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1559,7 +1575,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1589,9 +1605,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1601,7 +1617,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1631,9 +1647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1643,7 +1659,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1673,9 +1689,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1685,7 +1701,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1715,9 +1731,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1727,7 +1743,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1757,9 +1773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1769,7 +1785,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1799,9 +1815,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1811,7 +1827,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1841,9 +1857,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1853,7 +1869,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1883,9 +1899,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1895,7 +1911,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1925,9 +1941,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1937,7 +1953,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1967,9 +1983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1979,7 +1995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2009,9 +2025,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2021,7 +2037,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2051,9 +2067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2063,7 +2079,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2093,9 +2109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2105,7 +2121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2135,9 +2151,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2147,7 +2163,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2177,9 +2193,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2189,7 +2205,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2219,9 +2235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2231,7 +2247,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2261,9 +2277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2273,7 +2289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2303,9 +2319,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2315,7 +2331,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2345,9 +2361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2357,7 +2373,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2387,9 +2403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2399,7 +2415,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2429,9 +2445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2441,7 +2457,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2471,9 +2487,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2483,7 +2499,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2513,9 +2529,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2525,7 +2541,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2555,9 +2571,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2567,7 +2583,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2597,9 +2613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2609,7 +2625,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2639,9 +2655,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2651,7 +2667,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2681,9 +2697,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2693,7 +2709,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2723,9 +2739,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2735,7 +2751,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2765,9 +2781,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2777,7 +2793,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13265280" cy="9520920"/>
+          <a:ext cx="13340520" cy="9520200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2807,9 +2823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2819,7 +2835,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2852,9 +2868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2864,7 +2880,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2897,9 +2913,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2909,7 +2925,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2942,9 +2958,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2954,7 +2970,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2987,9 +3003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2999,7 +3015,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3032,9 +3048,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3044,7 +3060,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3077,9 +3093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3089,7 +3105,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3122,9 +3138,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3134,7 +3150,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3167,9 +3183,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3179,7 +3195,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3212,9 +3228,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3224,7 +3240,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3257,9 +3273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3269,7 +3285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3302,9 +3318,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3314,7 +3330,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3347,9 +3363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3359,7 +3375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3392,9 +3408,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3404,7 +3420,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3437,9 +3453,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3449,7 +3465,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3482,9 +3498,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3494,7 +3510,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3527,9 +3543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3539,7 +3555,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3572,9 +3588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3584,7 +3600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3617,9 +3633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3629,7 +3645,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3662,9 +3678,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3674,7 +3690,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3707,9 +3723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3719,7 +3735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3752,9 +3768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3764,7 +3780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3797,9 +3813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3809,7 +3825,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3842,9 +3858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3854,7 +3870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3887,9 +3903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3899,7 +3915,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3932,9 +3948,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3944,7 +3960,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3977,9 +3993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3989,7 +4005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4022,9 +4038,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4034,7 +4050,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4067,9 +4083,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4079,7 +4095,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4112,9 +4128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4124,7 +4140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4157,9 +4173,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4169,7 +4185,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4202,9 +4218,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4214,7 +4230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4247,9 +4263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4259,7 +4275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4292,9 +4308,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4304,7 +4320,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4337,9 +4353,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4349,7 +4365,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4382,9 +4398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4394,7 +4410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4427,9 +4443,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4439,7 +4455,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4472,9 +4488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4484,7 +4500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4517,9 +4533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4529,7 +4545,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4562,9 +4578,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4574,7 +4590,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4607,9 +4623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4619,7 +4635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4652,9 +4668,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4664,7 +4680,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4697,9 +4713,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4709,7 +4725,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4742,9 +4758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4754,7 +4770,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4787,9 +4803,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4799,7 +4815,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4832,9 +4848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4844,7 +4860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4877,9 +4893,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4889,7 +4905,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4922,9 +4938,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4934,7 +4950,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4967,9 +4983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4979,7 +4995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5012,9 +5028,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5024,7 +5040,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5057,9 +5073,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5069,7 +5085,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5102,9 +5118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5114,7 +5130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5147,9 +5163,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5159,7 +5175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5192,9 +5208,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5204,7 +5220,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5237,9 +5253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5249,7 +5265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5282,9 +5298,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5294,7 +5310,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5327,9 +5343,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5339,7 +5355,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5372,9 +5388,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5384,7 +5400,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5417,9 +5433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5429,7 +5445,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10016640" cy="186840"/>
+          <a:ext cx="10092240" cy="186120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5466,19 +5482,19 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="42.2064777327935"/>
     <col collapsed="false" hidden="true" max="9" min="6" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="true" max="13" min="11" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="16" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="20" style="2" width="9.10526315789474"/>
@@ -5508,21 +5524,21 @@
       </c>
       <c r="G1" s="4" t="n">
         <f aca="false">SUM(D2:D469)</f>
-        <v>0.724203892427918</v>
+        <v>0.0242439463839941</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="n">
         <f aca="false">G1 / 8</f>
-        <v>0.0905254865534897</v>
+        <v>0.00303049329799926</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="5" t="n">
         <f aca="false">I1 / 22</f>
-        <v>0.00411479484334044</v>
+        <v>0.000137749695363603</v>
       </c>
       <c r="L1" s="0" t="n">
         <f aca="false">HOUR(K1)</f>
@@ -5530,11 +5546,11 @@
       </c>
       <c r="M1" s="6" t="n">
         <f aca="false">MINUTE(K1)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N1" s="7" t="n">
         <f aca="false">L1 + M1 / 60</f>
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>8</v>
@@ -5545,9 +5561,9 @@
       <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="8" t="n">
+      <c r="R1" s="8" t="e">
         <f aca="false">P1 / N1</f>
-        <v>54000</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>10</v>
@@ -5558,9 +5574,9 @@
       <c r="U1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="8" t="n">
+      <c r="V1" s="8" t="e">
         <f aca="false">R1 * T1</f>
-        <v>3399840</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5713,20 +5729,32 @@
         <v>-0.496395939204977</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>43438</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0.686765501599479</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.697916666666667</v>
+      </c>
       <c r="D12" s="5" t="n">
         <f aca="false">C12-B12</f>
-        <v>0</v>
+        <v>0.0111511650671876</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5"/>
+      <c r="A13" s="1" t="n">
+        <v>43438</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>0.711111111111111</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="n">
         <f aca="false">C13-B13</f>
-        <v>0</v>
+        <v>-0.711111111111111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
+++ b/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
@@ -25,6 +25,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -345,9 +346,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -357,7 +358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -387,9 +388,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -399,7 +400,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -429,9 +430,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -441,7 +442,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -471,9 +472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -483,7 +484,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -513,9 +514,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -525,7 +526,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -555,9 +556,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -567,7 +568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -597,9 +598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -609,7 +610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -639,9 +640,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -651,7 +652,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -681,9 +682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -693,7 +694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -723,9 +724,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -735,7 +736,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -765,9 +766,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -777,7 +778,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,9 +808,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -819,7 +820,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -849,9 +850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -861,7 +862,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -891,9 +892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -903,7 +904,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -933,9 +934,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -945,7 +946,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -975,9 +976,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -987,7 +988,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1017,9 +1018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1029,7 +1030,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1059,9 +1060,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1071,7 +1072,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1101,9 +1102,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1113,7 +1114,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1143,9 +1144,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1155,7 +1156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1185,9 +1186,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1197,7 +1198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1227,9 +1228,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1239,7 +1240,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1269,9 +1270,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1281,7 +1282,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1311,9 +1312,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1323,7 +1324,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1353,9 +1354,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1365,7 +1366,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1395,9 +1396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1407,7 +1408,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1437,9 +1438,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1449,7 +1450,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1479,9 +1480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1491,7 +1492,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1521,9 +1522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1533,7 +1534,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1563,9 +1564,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1575,7 +1576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1605,9 +1606,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1617,7 +1618,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1647,9 +1648,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1659,7 +1660,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1689,9 +1690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1701,7 +1702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1731,9 +1732,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1743,7 +1744,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1773,9 +1774,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1785,7 +1786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1815,9 +1816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1827,7 +1828,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1857,9 +1858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1869,7 +1870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1899,9 +1900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1911,7 +1912,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1941,9 +1942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1953,7 +1954,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1983,9 +1984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1995,7 +1996,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2025,9 +2026,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2037,7 +2038,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2067,9 +2068,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2079,7 +2080,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2109,9 +2110,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2121,7 +2122,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2151,9 +2152,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2163,7 +2164,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2193,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2205,7 +2206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2235,9 +2236,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2247,7 +2248,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2277,9 +2278,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2289,7 +2290,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2319,9 +2320,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2331,7 +2332,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2361,9 +2362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2373,7 +2374,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2403,9 +2404,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2415,7 +2416,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2445,9 +2446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2457,7 +2458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2487,9 +2488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2499,7 +2500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2529,9 +2530,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2541,7 +2542,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2571,9 +2572,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2583,7 +2584,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2613,9 +2614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2625,7 +2626,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2655,9 +2656,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2667,7 +2668,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2697,9 +2698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2709,7 +2710,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2739,9 +2740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2751,7 +2752,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2781,9 +2782,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2793,7 +2794,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13340520" cy="9520200"/>
+          <a:ext cx="13368960" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2823,9 +2824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2835,7 +2836,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2868,9 +2869,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2880,7 +2881,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2913,9 +2914,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2925,7 +2926,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2958,9 +2959,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2970,7 +2971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3003,9 +3004,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3015,7 +3016,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3048,9 +3049,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3060,7 +3061,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3093,9 +3094,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3105,7 +3106,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3138,9 +3139,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3150,7 +3151,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3183,9 +3184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3195,7 +3196,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3228,9 +3229,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3240,7 +3241,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3273,9 +3274,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3285,7 +3286,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3318,9 +3319,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3330,7 +3331,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3363,9 +3364,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3375,7 +3376,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3408,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3420,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3453,9 +3454,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3465,7 +3466,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3498,9 +3499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3510,7 +3511,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3543,9 +3544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3555,7 +3556,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3588,9 +3589,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3600,7 +3601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3633,9 +3634,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3645,7 +3646,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3678,9 +3679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3690,7 +3691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3723,9 +3724,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3735,7 +3736,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3768,9 +3769,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3780,7 +3781,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3813,9 +3814,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3825,7 +3826,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3858,9 +3859,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3870,7 +3871,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3903,9 +3904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3915,7 +3916,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3948,9 +3949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3960,7 +3961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3993,9 +3994,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4005,7 +4006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4038,9 +4039,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4050,7 +4051,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4083,9 +4084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4095,7 +4096,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4128,9 +4129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4140,7 +4141,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4173,9 +4174,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4185,7 +4186,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4218,9 +4219,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4230,7 +4231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4263,9 +4264,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4275,7 +4276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4308,9 +4309,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4320,7 +4321,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4353,9 +4354,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4365,7 +4366,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4398,9 +4399,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4410,7 +4411,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4443,9 +4444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4455,7 +4456,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4488,9 +4489,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4500,7 +4501,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4533,9 +4534,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4545,7 +4546,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4578,9 +4579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4590,7 +4591,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4623,9 +4624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4635,7 +4636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4668,9 +4669,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4680,7 +4681,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4713,9 +4714,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4725,7 +4726,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4758,9 +4759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4770,7 +4771,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4803,9 +4804,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4815,7 +4816,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4848,9 +4849,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4860,7 +4861,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4893,9 +4894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4905,7 +4906,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4938,9 +4939,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4950,7 +4951,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4983,9 +4984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4995,7 +4996,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5028,9 +5029,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5040,7 +5041,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5073,9 +5074,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5085,7 +5086,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5118,9 +5119,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5130,7 +5131,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5163,9 +5164,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5175,7 +5176,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5208,9 +5209,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5220,7 +5221,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5253,9 +5254,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5265,7 +5266,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5298,9 +5299,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5310,7 +5311,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5343,9 +5344,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5355,7 +5356,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5388,9 +5389,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5400,7 +5401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5433,9 +5434,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5445,7 +5446,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10092240" cy="186120"/>
+          <a:ext cx="10120320" cy="185760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5482,14 +5483,14 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="42.5263157894737"/>
     <col collapsed="false" hidden="true" max="9" min="6" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="true" max="13" min="11" style="2" width="0"/>
@@ -5524,21 +5525,21 @@
       </c>
       <c r="G1" s="4" t="n">
         <f aca="false">SUM(D2:D469)</f>
-        <v>0.0242439463839941</v>
+        <v>1.24577172416177</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="n">
         <f aca="false">G1 / 8</f>
-        <v>0.00303049329799926</v>
+        <v>0.155721465520221</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="5" t="n">
         <f aca="false">I1 / 22</f>
-        <v>0.000137749695363603</v>
+        <v>0.00707824843273734</v>
       </c>
       <c r="L1" s="0" t="n">
         <f aca="false">HOUR(K1)</f>
@@ -5546,11 +5547,11 @@
       </c>
       <c r="M1" s="6" t="n">
         <f aca="false">MINUTE(K1)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N1" s="7" t="n">
         <f aca="false">L1 + M1 / 60</f>
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>8</v>
@@ -5561,9 +5562,9 @@
       <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="8" t="e">
+      <c r="R1" s="8" t="n">
         <f aca="false">P1 / N1</f>
-        <v>#DIV/0!</v>
+        <v>27000</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>10</v>
@@ -5574,9 +5575,9 @@
       <c r="U1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="8" t="e">
+      <c r="V1" s="8" t="n">
         <f aca="false">R1 * T1</f>
-        <v>#DIV/0!</v>
+        <v>1699920</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5714,7 +5715,7 @@
         <v>0.0125</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>43438</v>
       </c>
@@ -5722,11 +5723,11 @@
         <v>0.546395939204977</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
       <c r="D11" s="5" t="n">
         <f aca="false">C11-B11</f>
-        <v>-0.496395939204977</v>
+        <v>0.00360406079502296</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,10 +5752,12 @@
       <c r="B13" s="5" t="n">
         <v>0.711111111111111</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="n">
+        <v>0.721527777777778</v>
+      </c>
       <c r="D13" s="5" t="n">
         <f aca="false">C13-B13</f>
-        <v>-0.711111111111111</v>
+        <v>0.0104166666666667</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
+++ b/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
@@ -26,6 +26,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -346,9 +347,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -358,7 +359,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -388,9 +389,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -400,7 +401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -430,9 +431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -442,7 +443,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -472,9 +473,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -484,7 +485,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -514,9 +515,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -526,7 +527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -556,9 +557,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -568,7 +569,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -598,9 +599,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -610,7 +611,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -640,9 +641,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -652,7 +653,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -682,9 +683,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -694,7 +695,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -724,9 +725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -736,7 +737,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -766,9 +767,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -778,7 +779,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -808,9 +809,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -820,7 +821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -850,9 +851,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -862,7 +863,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,9 +893,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -904,7 +905,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -934,9 +935,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -946,7 +947,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -976,9 +977,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -988,7 +989,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1018,9 +1019,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1030,7 +1031,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1060,9 +1061,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1072,7 +1073,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1102,9 +1103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1114,7 +1115,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1144,9 +1145,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1156,7 +1157,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1186,9 +1187,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1198,7 +1199,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1228,9 +1229,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1240,7 +1241,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1270,9 +1271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1282,7 +1283,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1312,9 +1313,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1324,7 +1325,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1354,9 +1355,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1366,7 +1367,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1396,9 +1397,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1408,7 +1409,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1438,9 +1439,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1450,7 +1451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1480,9 +1481,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1492,7 +1493,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1522,9 +1523,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1534,7 +1535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1564,9 +1565,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1576,7 +1577,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1606,9 +1607,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1618,7 +1619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1648,9 +1649,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1660,7 +1661,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1690,9 +1691,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1702,7 +1703,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1732,9 +1733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1744,7 +1745,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1774,9 +1775,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1786,7 +1787,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1816,9 +1817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1828,7 +1829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1858,9 +1859,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1870,7 +1871,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1900,9 +1901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1912,7 +1913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1942,9 +1943,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1954,7 +1955,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1984,9 +1985,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1996,7 +1997,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2026,9 +2027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2038,7 +2039,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2068,9 +2069,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2080,7 +2081,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2110,9 +2111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2122,7 +2123,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2152,9 +2153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2164,7 +2165,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2194,9 +2195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2206,7 +2207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2236,9 +2237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2248,7 +2249,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2278,9 +2279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2290,7 +2291,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2320,9 +2321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2332,7 +2333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2362,9 +2363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2374,7 +2375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2404,9 +2405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2416,7 +2417,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2446,9 +2447,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2458,7 +2459,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2488,9 +2489,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2500,7 +2501,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2530,9 +2531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2542,7 +2543,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2572,9 +2573,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2584,7 +2585,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2614,9 +2615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2626,7 +2627,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2656,9 +2657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2668,7 +2669,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2698,9 +2699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2710,7 +2711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2740,9 +2741,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2752,7 +2753,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2782,9 +2783,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2794,7 +2795,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13368960" cy="9519840"/>
+          <a:ext cx="13406760" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2824,9 +2825,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2836,7 +2837,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2869,9 +2870,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2881,7 +2882,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2914,9 +2915,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2926,7 +2927,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2959,9 +2960,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2971,7 +2972,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3004,9 +3005,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3016,7 +3017,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3049,9 +3050,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3061,7 +3062,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3094,9 +3095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3106,7 +3107,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3139,9 +3140,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3151,7 +3152,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3184,9 +3185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3196,7 +3197,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3229,9 +3230,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3241,7 +3242,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3274,9 +3275,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3286,7 +3287,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3319,9 +3320,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3331,7 +3332,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3364,9 +3365,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3376,7 +3377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3409,9 +3410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3422,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3454,9 +3455,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3466,7 +3467,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3499,9 +3500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3511,7 +3512,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3544,9 +3545,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3556,7 +3557,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3589,9 +3590,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3601,7 +3602,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3634,9 +3635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3646,7 +3647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3679,9 +3680,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3691,7 +3692,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3724,9 +3725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3736,7 +3737,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3769,9 +3770,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3781,7 +3782,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3814,9 +3815,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3826,7 +3827,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3859,9 +3860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3871,7 +3872,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3904,9 +3905,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3916,7 +3917,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3949,9 +3950,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3961,7 +3962,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3994,9 +3995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4006,7 +4007,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4039,9 +4040,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4051,7 +4052,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4084,9 +4085,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4096,7 +4097,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4129,9 +4130,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4141,7 +4142,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4174,9 +4175,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4186,7 +4187,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4219,9 +4220,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4231,7 +4232,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4264,9 +4265,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4276,7 +4277,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4309,9 +4310,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4321,7 +4322,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4354,9 +4355,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4366,7 +4367,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4399,9 +4400,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4411,7 +4412,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4444,9 +4445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4456,7 +4457,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4489,9 +4490,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4501,7 +4502,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4534,9 +4535,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4546,7 +4547,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4579,9 +4580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4591,7 +4592,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4624,9 +4625,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4636,7 +4637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4669,9 +4670,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4681,7 +4682,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4714,9 +4715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4726,7 +4727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4759,9 +4760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4771,7 +4772,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4804,9 +4805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4816,7 +4817,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4849,9 +4850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4861,7 +4862,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4894,9 +4895,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4906,7 +4907,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4939,9 +4940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4951,7 +4952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4984,9 +4985,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4996,7 +4997,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5029,9 +5030,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5041,7 +5042,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5074,9 +5075,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5086,7 +5087,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5119,9 +5120,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5131,7 +5132,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5164,9 +5165,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5176,7 +5177,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5209,9 +5210,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5221,7 +5222,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5254,9 +5255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5266,7 +5267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5299,9 +5300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5311,7 +5312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5344,9 +5345,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5356,7 +5357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5389,9 +5390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5401,7 +5402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5434,9 +5435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:colOff>147600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5446,7 +5447,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10120320" cy="185760"/>
+          <a:ext cx="10158120" cy="185400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5483,14 +5484,14 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="42.9554655870445"/>
     <col collapsed="false" hidden="true" max="9" min="6" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="true" max="13" min="11" style="2" width="0"/>
@@ -5525,21 +5526,21 @@
       </c>
       <c r="G1" s="4" t="n">
         <f aca="false">SUM(D2:D469)</f>
-        <v>1.24577172416177</v>
+        <v>1.28049394638399</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="n">
         <f aca="false">G1 / 8</f>
-        <v>0.155721465520221</v>
+        <v>0.160061743297999</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="5" t="n">
         <f aca="false">I1 / 22</f>
-        <v>0.00707824843273734</v>
+        <v>0.00727553378627269</v>
       </c>
       <c r="L1" s="0" t="n">
         <f aca="false">HOUR(K1)</f>
@@ -5760,12 +5761,19 @@
         <v>0.0104166666666667</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>43439</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>0.440972222222222</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.475694444444444</v>
+      </c>
       <c r="D14" s="5" t="n">
         <f aca="false">C14-B14</f>
-        <v>0</v>
+        <v>0.0347222222222222</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
+++ b/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
@@ -27,6 +27,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -347,9 +348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -359,7 +360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -389,9 +390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -401,7 +402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -431,9 +432,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -443,7 +444,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -473,9 +474,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -485,7 +486,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -515,9 +516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -527,7 +528,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -557,9 +558,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -569,7 +570,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -599,9 +600,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -611,7 +612,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -641,9 +642,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -653,7 +654,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,9 +684,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -695,7 +696,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -725,9 +726,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -737,7 +738,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -767,9 +768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -779,7 +780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -809,9 +810,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -821,7 +822,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -851,9 +852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -863,7 +864,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -893,9 +894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -905,7 +906,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -935,9 +936,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -947,7 +948,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -977,9 +978,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -989,7 +990,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1019,9 +1020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1031,7 +1032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1061,9 +1062,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1073,7 +1074,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1103,9 +1104,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1115,7 +1116,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1145,9 +1146,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1157,7 +1158,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1187,9 +1188,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1199,7 +1200,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1229,9 +1230,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1241,7 +1242,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1271,9 +1272,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1283,7 +1284,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1313,9 +1314,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1325,7 +1326,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1355,9 +1356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1367,7 +1368,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1397,9 +1398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1409,7 +1410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1439,9 +1440,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1451,7 +1452,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1481,9 +1482,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1493,7 +1494,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1523,9 +1524,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1535,7 +1536,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1565,9 +1566,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1577,7 +1578,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1607,9 +1608,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1619,7 +1620,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1649,9 +1650,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1661,7 +1662,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1691,9 +1692,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1703,7 +1704,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1733,9 +1734,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1745,7 +1746,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1775,9 +1776,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1787,7 +1788,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1817,9 +1818,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1829,7 +1830,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1859,9 +1860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1871,7 +1872,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1901,9 +1902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1913,7 +1914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1943,9 +1944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1955,7 +1956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1985,9 +1986,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1997,7 +1998,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2027,9 +2028,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2039,7 +2040,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2069,9 +2070,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2081,7 +2082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2111,9 +2112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2123,7 +2124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2153,9 +2154,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2165,7 +2166,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2195,9 +2196,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2207,7 +2208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2237,9 +2238,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2249,7 +2250,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2279,9 +2280,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2291,7 +2292,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2321,9 +2322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2333,7 +2334,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2363,9 +2364,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2375,7 +2376,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2405,9 +2406,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2417,7 +2418,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2447,9 +2448,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2459,7 +2460,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2489,9 +2490,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2501,7 +2502,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2531,9 +2532,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2543,7 +2544,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2573,9 +2574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2585,7 +2586,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2615,9 +2616,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2627,7 +2628,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2657,9 +2658,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2669,7 +2670,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2699,9 +2700,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2711,7 +2712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2741,9 +2742,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2753,7 +2754,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2783,9 +2784,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2795,7 +2796,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406760" cy="9519480"/>
+          <a:ext cx="13444200" cy="9519120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2825,9 +2826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2837,7 +2838,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2870,9 +2871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2882,7 +2883,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2915,9 +2916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2927,7 +2928,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2960,9 +2961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2972,7 +2973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3005,9 +3006,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3017,7 +3018,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3050,9 +3051,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3062,7 +3063,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3095,9 +3096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3107,7 +3108,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3140,9 +3141,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3152,7 +3153,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3185,9 +3186,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3197,7 +3198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3230,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3242,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3275,9 +3276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3287,7 +3288,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3320,9 +3321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3332,7 +3333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3365,9 +3366,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3377,7 +3378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3410,9 +3411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3422,7 +3423,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3455,9 +3456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3467,7 +3468,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3500,9 +3501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3512,7 +3513,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3545,9 +3546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3557,7 +3558,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3590,9 +3591,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3602,7 +3603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3635,9 +3636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3647,7 +3648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3680,9 +3681,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3692,7 +3693,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3725,9 +3726,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3737,7 +3738,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3770,9 +3771,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3782,7 +3783,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3815,9 +3816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3827,7 +3828,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3860,9 +3861,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3872,7 +3873,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3905,9 +3906,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3917,7 +3918,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3950,9 +3951,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3962,7 +3963,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3995,9 +3996,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4007,7 +4008,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4040,9 +4041,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4052,7 +4053,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4085,9 +4086,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4097,7 +4098,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4130,9 +4131,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4142,7 +4143,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4175,9 +4176,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4187,7 +4188,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4220,9 +4221,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4232,7 +4233,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4265,9 +4266,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4277,7 +4278,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4310,9 +4311,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4322,7 +4323,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4355,9 +4356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4367,7 +4368,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4400,9 +4401,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4412,7 +4413,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4445,9 +4446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4457,7 +4458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4490,9 +4491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4502,7 +4503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4535,9 +4536,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4547,7 +4548,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4580,9 +4581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4592,7 +4593,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4625,9 +4626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4637,7 +4638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4670,9 +4671,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4682,7 +4683,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4715,9 +4716,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4727,7 +4728,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4760,9 +4761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4772,7 +4773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4805,9 +4806,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4817,7 +4818,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4850,9 +4851,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4862,7 +4863,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4895,9 +4896,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4907,7 +4908,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4940,9 +4941,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4952,7 +4953,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4985,9 +4986,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4997,7 +4998,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5030,9 +5031,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5042,7 +5043,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5075,9 +5076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5087,7 +5088,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5120,9 +5121,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5132,7 +5133,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5165,9 +5166,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5177,7 +5178,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5210,9 +5211,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5222,7 +5223,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5255,9 +5256,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5267,7 +5268,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5300,9 +5301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5312,7 +5313,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5345,9 +5346,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5357,7 +5358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5390,9 +5391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5402,7 +5403,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5435,9 +5436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5447,7 +5448,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10158120" cy="185400"/>
+          <a:ext cx="10195920" cy="185040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5484,14 +5485,14 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="43.3846153846154"/>
     <col collapsed="false" hidden="true" max="9" min="6" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="true" max="13" min="11" style="2" width="0"/>
@@ -5526,21 +5527,21 @@
       </c>
       <c r="G1" s="4" t="n">
         <f aca="false">SUM(D2:D469)</f>
-        <v>1.28049394638399</v>
+        <v>1.3805495716786</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="n">
         <f aca="false">G1 / 8</f>
-        <v>0.160061743297999</v>
+        <v>0.172568696459825</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="5" t="n">
         <f aca="false">I1 / 22</f>
-        <v>0.00727553378627269</v>
+        <v>0.00784403165726478</v>
       </c>
       <c r="L1" s="0" t="n">
         <f aca="false">HOUR(K1)</f>
@@ -5548,11 +5549,11 @@
       </c>
       <c r="M1" s="6" t="n">
         <f aca="false">MINUTE(K1)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="7" t="n">
         <f aca="false">L1 + M1 / 60</f>
-        <v>0.166666666666667</v>
+        <v>0.183333333333333</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>8</v>
@@ -5565,7 +5566,7 @@
       </c>
       <c r="R1" s="8" t="n">
         <f aca="false">P1 / N1</f>
-        <v>27000</v>
+        <v>24545.4545454545</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>10</v>
@@ -5578,7 +5579,7 @@
       </c>
       <c r="V1" s="8" t="n">
         <f aca="false">R1 * T1</f>
-        <v>1699920</v>
+        <v>1545381.81818182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5769,19 +5770,26 @@
         <v>0.440972222222222</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.475694444444444</v>
+        <v>0.522222222222222</v>
       </c>
       <c r="D14" s="5" t="n">
         <f aca="false">C14-B14</f>
-        <v>0.0347222222222222</v>
+        <v>0.0812500000000002</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="1" t="n">
+        <v>43439</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.928527847516829</v>
+      </c>
       <c r="D15" s="5" t="n">
         <f aca="false">C15-B15</f>
-        <v>0</v>
+        <v>0.0535278475168287</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
+++ b/syncronisation/Time sheet - FRA JavaScript output tables.xlsx
@@ -28,6 +28,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Mine!$A$1:$E$941</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -348,9 +349,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -360,7 +361,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -390,9 +391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -402,7 +403,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -432,9 +433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -444,7 +445,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -474,9 +475,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -486,7 +487,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -516,9 +517,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -528,7 +529,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -558,9 +559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -570,7 +571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -600,9 +601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -612,7 +613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -642,9 +643,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -654,7 +655,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -684,9 +685,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -696,7 +697,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -726,9 +727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -738,7 +739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -768,9 +769,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -780,7 +781,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -810,9 +811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -822,7 +823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -852,9 +853,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -864,7 +865,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,9 +895,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -906,7 +907,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -936,9 +937,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -948,7 +949,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -978,9 +979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -990,7 +991,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1020,9 +1021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1032,7 +1033,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1062,9 +1063,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1074,7 +1075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1104,9 +1105,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1116,7 +1117,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1146,9 +1147,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1158,7 +1159,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1188,9 +1189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1200,7 +1201,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1230,9 +1231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1242,7 +1243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1272,9 +1273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1284,7 +1285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1314,9 +1315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1326,7 +1327,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1356,9 +1357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1368,7 +1369,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,9 +1399,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1410,7 +1411,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1440,9 +1441,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1452,7 +1453,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1482,9 +1483,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1494,7 +1495,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1524,9 +1525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1536,7 +1537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1566,9 +1567,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1578,7 +1579,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1608,9 +1609,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1620,7 +1621,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1650,9 +1651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1662,7 +1663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1692,9 +1693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1704,7 +1705,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1734,9 +1735,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1746,7 +1747,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1776,9 +1777,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1788,7 +1789,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1818,9 +1819,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1830,7 +1831,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1860,9 +1861,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1872,7 +1873,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1902,9 +1903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1914,7 +1915,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1944,9 +1945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1956,7 +1957,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1986,9 +1987,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1998,7 +1999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2028,9 +2029,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2040,7 +2041,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2070,9 +2071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2082,7 +2083,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2112,9 +2113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2124,7 +2125,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2154,9 +2155,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2166,7 +2167,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2196,9 +2197,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2208,7 +2209,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2238,9 +2239,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2250,7 +2251,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2280,9 +2281,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2292,7 +2293,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2322,9 +2323,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2334,7 +2335,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2364,9 +2365,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2376,7 +2377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2406,9 +2407,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2418,7 +2419,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2448,9 +2449,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2460,7 +2461,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2490,9 +2491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2502,7 +2503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2532,9 +2533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2544,7 +2545,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2574,9 +2575,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2586,7 +2587,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2616,9 +2617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2628,7 +2629,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2658,9 +2659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2670,7 +2671,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2700,9 +2701,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2712,7 +2713,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2742,9 +2743,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2754,7 +2755,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2784,9 +2785,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2796,7 +2797,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13444200" cy="9519120"/>
+          <a:ext cx="13472640" cy="9518760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2826,9 +2827,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2838,7 +2839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2871,9 +2872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2883,7 +2884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2916,9 +2917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2928,7 +2929,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2961,9 +2962,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2973,7 +2974,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3006,9 +3007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3018,7 +3019,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3051,9 +3052,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3063,7 +3064,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3096,9 +3097,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3108,7 +3109,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3141,9 +3142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3153,7 +3154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3186,9 +3187,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3198,7 +3199,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3231,9 +3232,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3244,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3276,9 +3277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3288,7 +3289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3321,9 +3322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3333,7 +3334,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3366,9 +3367,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3378,7 +3379,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3411,9 +3412,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3423,7 +3424,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3456,9 +3457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3468,7 +3469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3501,9 +3502,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3513,7 +3514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3546,9 +3547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3558,7 +3559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3591,9 +3592,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3603,7 +3604,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3636,9 +3637,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3648,7 +3649,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3681,9 +3682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3693,7 +3694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3726,9 +3727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3738,7 +3739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3771,9 +3772,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3783,7 +3784,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3816,9 +3817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3828,7 +3829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3861,9 +3862,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3873,7 +3874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3906,9 +3907,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3918,7 +3919,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3951,9 +3952,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3963,7 +3964,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3996,9 +3997,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4008,7 +4009,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4041,9 +4042,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4053,7 +4054,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4086,9 +4087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4098,7 +4099,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4131,9 +4132,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4143,7 +4144,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4176,9 +4177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4188,7 +4189,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4221,9 +4222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4233,7 +4234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4266,9 +4267,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4278,7 +4279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4311,9 +4312,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4323,7 +4324,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4356,9 +4357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4368,7 +4369,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4401,9 +4402,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4413,7 +4414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4446,9 +4447,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4458,7 +4459,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4491,9 +4492,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4503,7 +4504,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4536,9 +4537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4548,7 +4549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4581,9 +4582,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4593,7 +4594,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4626,9 +4627,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4638,7 +4639,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4671,9 +4672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4683,7 +4684,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4716,9 +4717,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4728,7 +4729,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4761,9 +4762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4773,7 +4774,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4806,9 +4807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4818,7 +4819,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4851,9 +4852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4863,7 +4864,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4896,9 +4897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4908,7 +4909,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4941,9 +4942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4953,7 +4954,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4986,9 +4987,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4998,7 +4999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5031,9 +5032,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5043,7 +5044,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5076,9 +5077,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5088,7 +5089,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5121,9 +5122,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5133,7 +5134,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5166,9 +5167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5178,7 +5179,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5211,9 +5212,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5223,7 +5224,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5256,9 +5257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5268,7 +5269,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5301,9 +5302,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5313,7 +5314,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5346,9 +5347,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5358,7 +5359,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5391,9 +5392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5403,7 +5404,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5436,9 +5437,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5448,7 +5449,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10195920" cy="185040"/>
+          <a:ext cx="10224000" cy="184680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5485,14 +5486,14 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="43.7044534412956"/>
     <col collapsed="false" hidden="true" max="9" min="6" style="2" width="0"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="true" max="13" min="11" style="2" width="0"/>
@@ -5527,21 +5528,21 @@
       </c>
       <c r="G1" s="4" t="n">
         <f aca="false">SUM(D2:D469)</f>
-        <v>1.3805495716786</v>
+        <v>1.00527711557872</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="n">
         <f aca="false">G1 / 8</f>
-        <v>0.172568696459825</v>
+        <v>0.12565963944734</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="5" t="n">
         <f aca="false">I1 / 22</f>
-        <v>0.00784403165726478</v>
+        <v>0.00571180179306089</v>
       </c>
       <c r="L1" s="0" t="n">
         <f aca="false">HOUR(K1)</f>
@@ -5549,11 +5550,11 @@
       </c>
       <c r="M1" s="6" t="n">
         <f aca="false">MINUTE(K1)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N1" s="7" t="n">
         <f aca="false">L1 + M1 / 60</f>
-        <v>0.183333333333333</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>8</v>
@@ -5566,7 +5567,7 @@
       </c>
       <c r="R1" s="8" t="n">
         <f aca="false">P1 / N1</f>
-        <v>24545.4545454545</v>
+        <v>33750</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>10</v>
@@ -5579,7 +5580,7 @@
       </c>
       <c r="V1" s="8" t="n">
         <f aca="false">R1 * T1</f>
-        <v>1545381.81818182</v>
+        <v>2124900</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5793,11 +5794,16 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5"/>
+      <c r="A16" s="1" t="n">
+        <v>43440</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0.375272456099884</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="n">
         <f aca="false">C16-B16</f>
-        <v>0</v>
+        <v>-0.375272456099884</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
